--- a/mcmaster_excel/Alloy_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Alloy_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>130,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>96075A102</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$16.15</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96075A104</t>
+          <t>96075A102</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16.48</t>
+          <t>$16.15</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96075A106</t>
+          <t>96075A104</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,12 +688,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>96075A107</t>
+          <t>96075A106</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -752,17 +720,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -782,17 +750,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96075A110</t>
+          <t>96075A107</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +812,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>96075A111</t>
+          <t>96075A110</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19.20</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -901,17 +869,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>96075A115</t>
+          <t>96075A111</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -963,17 +931,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96075A118</t>
+          <t>96075A115</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1025,17 +993,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96075A123</t>
+          <t>96075A118</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1062,17 +1030,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1087,22 +1055,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96075A134</t>
+          <t>96075A123</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,12 +1122,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96075A135</t>
+          <t>96075A134</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1211,17 +1179,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96075A139</t>
+          <t>96075A135</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>21.50</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1246,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>96075A143</t>
+          <t>96075A139</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>96075A147</t>
+          <t>96075A143</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>12.16</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1402,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96075A155</t>
+          <t>96075A147</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15.06</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1434,17 +1402,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1459,22 +1427,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96075A163</t>
+          <t>96075A155</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16.94</t>
+          <t>15.06</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1521,17 +1489,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>96075A167</t>
+          <t>96075A163</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1588,12 +1556,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>96075A171</t>
+          <t>96075A167</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>96075A179</t>
+          <t>96075A171</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1707,22 +1675,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96075A182</t>
+          <t>96075A179</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1769,17 +1737,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96075A183</t>
+          <t>96075A182</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96075A187</t>
+          <t>96075A183</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1898,12 +1866,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>96075A191</t>
+          <t>96075A187</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,12 +1928,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>96075A195</t>
+          <t>96075A191</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1990,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>96075A203</t>
+          <t>96075A195</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2054,17 +2022,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2084,17 +2052,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>96075A207</t>
+          <t>96075A203</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2106,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2146,12 +2114,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96075A211</t>
+          <t>96075A207</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2168,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2208,12 +2176,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>96075A219</t>
+          <t>96075A211</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2230,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2270,12 +2238,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>96075A223</t>
+          <t>96075A219</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2292,60 +2260,122 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>130,000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>96075A223</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Black-Oxide Alloy Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.437"</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.132"</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>T27</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>130,000</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>130,000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>96075A231</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>16.63</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Black-Oxide Alloy Steel</t>
         </is>
